--- a/mu table T inertia.xlsx
+++ b/mu table T inertia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdalla\Desktop\3rd civil\concrete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdalla\Desktop\3rd civil\t section inertia\TsectionInertia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087DE434-ED59-4D37-BA12-A7AE17B0F01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED03E81-DEE4-497A-98B6-5C5B175BB528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="seDL9X+o6queFavxPeF+SjUik655/PDhcW8UL4kirLdQEG7XwgYyeXPqsARBVFqIqj1x7CciifF4RKIZ08krPw==" workbookSaltValue="O5NF42q/A/79V9r+LTfZ8w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -80,6 +80,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,11 +274,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -286,9 +290,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,7 +645,7 @@
   <dimension ref="B2:AE24"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2075,8 +2078,8 @@
       <c r="Z19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AA19" s="15">
-        <v>50</v>
+      <c r="AA19" s="11">
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="2:31" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2170,13 +2173,13 @@
       <c r="Z20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AA20" s="15">
-        <v>250</v>
+      <c r="AA20" s="11">
+        <v>0.25</v>
       </c>
       <c r="AC20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AD20" s="11">
+      <c r="AD20" s="10">
         <f>(((AA23^3+AA24*(1-AA23)^3)/12)+AA23*(1-0.5*AA23-((AA23*(1-0.5*AA23)+0.5*AA24*(1-AA23)^2)/(AA23+AA24*(1-AA23))))^2+AA24*(1-AA23)*(0.5-0.5*AA23-((AA23*(1-0.5*AA23)+0.5*AA24*(1-AA23)^2)/(AA23+AA24*(1-AA23))))^2)*10000</f>
         <v>314.22222222222234</v>
       </c>
@@ -2272,15 +2275,15 @@
       <c r="Z21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AA21" s="15">
-        <v>100</v>
+      <c r="AA21" s="11">
+        <v>0.1</v>
       </c>
       <c r="AC21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AD21" s="10">
+      <c r="AD21" s="15">
         <f>AD20*AA22*AA20^3/10000</f>
-        <v>245486111.11111122</v>
+        <v>2.454861111111112E-4</v>
       </c>
     </row>
     <row r="22" spans="2:31" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2374,8 +2377,8 @@
       <c r="Z22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AA22" s="15">
-        <v>500</v>
+      <c r="AA22" s="11">
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2565,7 +2568,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="x5HFkrbhdZQgRUG3my7EQN7s+iYKR8uC0xeSxd+PVhdvKa1X8aPIq8zQ7RTUf/qg06s7WuVrwngGjRmt6N3nmQ==" saltValue="EoAVszPmsnjGirGknm0nzQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ey7A+8pRDAIOZRAiVCThx/exsIvyot7ecn5mk4s3AJvAnogD9mR+bnOLS7EwyNbjD2rD+ThvCTV0YKKZy38mMw==" saltValue="8oExQionxYo1AhS0v5MAng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="B5:B24"/>
     <mergeCell ref="D3:W3"/>
